--- a/Legallity of Bitcoin.xlsx
+++ b/Legallity of Bitcoin.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Semester 2\Proyek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\belajar\SEMESTER 2\PROYEK\data final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Graph" sheetId="2" r:id="rId1"/>
-    <sheet name="legality" sheetId="1" r:id="rId2"/>
+    <sheet name="Classification" sheetId="3" r:id="rId2"/>
+    <sheet name="legality" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="509">
   <si>
     <t>web-scraper-order</t>
   </si>
@@ -1552,7 +1553,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2092,7 +2093,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2120,9 +2121,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -2155,13 +2156,18 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
                   <a:prstClr val="black">
-                    <a:alpha val="25000"/>
+                    <a:alpha val="20000"/>
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9DF9-4F69-923D-3F3F044051EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2174,13 +2180,18 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
                   <a:prstClr val="black">
-                    <a:alpha val="25000"/>
+                    <a:alpha val="20000"/>
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9DF9-4F69-923D-3F3F044051EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2193,13 +2204,18 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
                   <a:prstClr val="black">
-                    <a:alpha val="25000"/>
+                    <a:alpha val="20000"/>
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9DF9-4F69-923D-3F3F044051EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2212,13 +2228,18 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
                   <a:prstClr val="black">
-                    <a:alpha val="25000"/>
+                    <a:alpha val="20000"/>
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9DF9-4F69-923D-3F3F044051EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2231,45 +2252,229 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
                   <a:prstClr val="black">
-                    <a:alpha val="25000"/>
+                    <a:alpha val="20000"/>
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9DF9-4F69-923D-3F3F044051EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
                 <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9DF9-4F69-923D-3F3F044051EB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9DF9-4F69-923D-3F3F044051EB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9DF9-4F69-923D-3F3F044051EB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9DF9-4F69-923D-3F3F044051EB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9DF9-4F69-923D-3F3F044051EB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
-            <c:showCatName val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
@@ -2278,7 +2483,7 @@
               <c:spPr>
                 <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
                       <a:lumOff val="65000"/>
                     </a:schemeClr>
@@ -2341,9 +2546,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9DF9-4F69-923D-3F3F044051EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2362,14 +2572,561 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Klasifikasi Negara yang Menggunakan Cryptocurrency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18380703420517194"/>
+          <c:y val="9.198900957369166E-2"/>
+          <c:w val="0.56788805789952623"/>
+          <c:h val="0.78231880186544678"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-414A-4DED-BCF1-B5B60776C4B9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-414A-4DED-BCF1-B5B60776C4B9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-414A-4DED-BCF1-B5B60776C4B9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-414A-4DED-BCF1-B5B60776C4B9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-414A-4DED-BCF1-B5B60776C4B9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-414A-4DED-BCF1-B5B60776C4B9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-414A-4DED-BCF1-B5B60776C4B9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.759036066703017E-2"/>
+                  <c:y val="-5.0484090753699667E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-414A-4DED-BCF1-B5B60776C4B9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0261043722434266E-2"/>
+                  <c:y val="6.0580908904439576E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-414A-4DED-BCF1-B5B60776C4B9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0261043722434266E-2"/>
+                  <c:y val="3.6348545342663671E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-414A-4DED-BCF1-B5B60776C4B9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9317267778383618E-3"/>
+                  <c:y val="4.8464727123551626E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-414A-4DED-BCF1-B5B60776C4B9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>legality!$G$11:$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Barter Good</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Commodity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Currency</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Money</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>No Classification</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>No Information</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Property</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>legality!$H$11:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-414A-4DED-BCF1-B5B60776C4B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:alpha val="78000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
@@ -2385,8 +3142,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2403,21 +3160,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:pattFill prst="dkDnDiag">
-      <a:fgClr>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
-      </a:fgClr>
-      <a:bgClr>
-        <a:schemeClr val="lt1"/>
-      </a:bgClr>
-    </a:pattFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2477,53 +3243,83 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="dkDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2531,43 +3327,37 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:alpha val="75000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -2586,9 +3376,9 @@
         <a:schemeClr val="phClr"/>
       </a:solidFill>
       <a:effectLst>
-        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
           <a:prstClr val="black">
-            <a:alpha val="25000"/>
+            <a:alpha val="20000"/>
           </a:prstClr>
         </a:outerShdw>
       </a:effectLst>
@@ -2610,7 +3400,7 @@
       <a:effectLst>
         <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
           <a:prstClr val="black">
-            <a:alpha val="20000"/>
+            <a:alpha val="10000"/>
           </a:prstClr>
         </a:outerShdw>
       </a:effectLst>
@@ -2618,7 +3408,10 @@
         <a:camera prst="orthographicFront"/>
         <a:lightRig rig="threePt" dir="t"/>
       </a:scene3d>
-      <a:sp3d prstMaterial="matte"/>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -2683,7 +3476,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2692,7 +3485,7 @@
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2707,7 +3500,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2718,7 +3511,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -2732,12 +3525,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -2751,12 +3544,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -2770,7 +3563,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:noFill/>
@@ -2784,12 +3577,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2803,12 +3596,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -2822,12 +3615,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
@@ -2841,12 +3634,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -2860,18 +3653,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:alpha val="78000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
@@ -2895,7 +3681,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2907,12 +3693,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -2926,9 +3712,613 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
@@ -2947,7 +4337,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2957,8 +4346,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2974,14 +4363,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2991,10 +4379,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3012,7 +4405,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="80" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3023,7 +4427,34 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8650788" cy="6249966"/>
+    <xdr:ext cx="8662737" cy="6286500"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8663836" cy="6289110"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3050,7 +4481,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:E247" totalsRowShown="0">
   <autoFilter ref="C1:E247"/>
   <sortState ref="C2:E247">
-    <sortCondition ref="D1:D247"/>
+    <sortCondition ref="E1:E247"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
@@ -3326,8 +4757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,13 +4795,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3381,13 +4812,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
@@ -3405,13 +4836,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>398</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -3429,13 +4860,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
@@ -3453,13 +4884,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -3477,13 +4908,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
@@ -3501,13 +4932,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <f>SUM(H3:H7)</f>
@@ -3522,13 +4953,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>346</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3539,13 +4970,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>392</v>
+        <v>208</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3556,13 +4987,20 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11">
+        <f>COUNTIF(Table3[Classification],"Barter Good")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3573,13 +5011,20 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12">
+        <f>COUNTIF(Table3[Classification],"Commodity")</f>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3590,13 +5035,20 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>318</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
         <v>28</v>
+      </c>
+      <c r="H13">
+        <f>COUNTIF(Table3[Classification],"Currency")</f>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3607,13 +5059,20 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>370</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <f>COUNTIF(Table3[Classification],"Money")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3624,13 +5083,20 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>404</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15">
+        <f>COUNTIF(Table3[Classification],"No Classification")</f>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3641,16 +5107,23 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>434</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <f>COUNTIF(Table3[Classification],"No Information")</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -3658,16 +5131,23 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>458</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17">
+        <f>COUNTIF(Table3[Classification],"Property")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -3675,16 +5155,16 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>464</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -3692,16 +5172,16 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>348</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -3709,16 +5189,16 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>356</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3726,16 +5206,16 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -3743,16 +5223,16 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -3760,16 +5240,16 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>430</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -3777,16 +5257,16 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>452</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -3794,16 +5274,16 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -3811,16 +5291,16 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -3828,16 +5308,16 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -3845,16 +5325,16 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>392</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -3862,7 +5342,7 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -3871,7 +5351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -3879,7 +5359,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -3888,7 +5368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -3896,7 +5376,7 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -3905,7 +5385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -3913,13 +5393,13 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3930,7 +5410,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -3947,13 +5427,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3964,7 +5444,7 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -3981,7 +5461,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -3998,7 +5478,7 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -4015,13 +5495,13 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4032,13 +5512,13 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4049,7 +5529,7 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -4066,13 +5546,13 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4083,13 +5563,13 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4100,13 +5580,13 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4117,13 +5597,13 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4134,7 +5614,7 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -4151,13 +5631,13 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4168,13 +5648,13 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4185,13 +5665,13 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4202,13 +5682,13 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4219,7 +5699,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -4236,7 +5716,7 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -4253,13 +5733,13 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4270,7 +5750,7 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
@@ -4287,7 +5767,7 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
@@ -4304,13 +5784,13 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4321,7 +5801,7 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -4338,7 +5818,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -4355,7 +5835,7 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -4372,7 +5852,7 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
@@ -4389,13 +5869,13 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4406,7 +5886,7 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>300</v>
+        <v>364</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
@@ -4423,7 +5903,7 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>304</v>
+        <v>366</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -4440,13 +5920,13 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>318</v>
+        <v>396</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4457,13 +5937,13 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>322</v>
+        <v>418</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4474,7 +5954,7 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D65" t="s">
         <v>17</v>
@@ -4491,7 +5971,7 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>334</v>
+        <v>466</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
@@ -4508,7 +5988,7 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>344</v>
+        <v>484</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
@@ -4525,7 +6005,7 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>350</v>
+        <v>488</v>
       </c>
       <c r="D68" t="s">
         <v>17</v>
@@ -4542,13 +6022,13 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>362</v>
+        <v>500</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4559,10 +6039,10 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>364</v>
+        <v>260</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E70" t="s">
         <v>28</v>
@@ -4576,10 +6056,10 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E71" t="s">
         <v>28</v>
@@ -4593,13 +6073,13 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4610,10 +6090,10 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>396</v>
+        <v>496</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E73" t="s">
         <v>28</v>
@@ -4627,13 +6107,13 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>398</v>
+        <v>117</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4644,13 +6124,13 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>404</v>
+        <v>230</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4661,13 +6141,13 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>418</v>
+        <v>111</v>
       </c>
       <c r="D76" t="s">
         <v>17</v>
       </c>
       <c r="E76" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4678,13 +6158,13 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>422</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4695,13 +6175,13 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>434</v>
+        <v>35</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4712,13 +6192,13 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>458</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4729,13 +6209,13 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>460</v>
+        <v>105</v>
       </c>
       <c r="D80" t="s">
         <v>17</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4746,13 +6226,13 @@
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>464</v>
+        <v>145</v>
       </c>
       <c r="D81" t="s">
         <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -4763,13 +6243,13 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>466</v>
+        <v>232</v>
       </c>
       <c r="D82" t="s">
         <v>17</v>
       </c>
       <c r="E82" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4780,13 +6260,13 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>484</v>
+        <v>70</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4797,13 +6277,13 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>488</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4814,13 +6294,13 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>492</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4831,13 +6311,13 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>500</v>
+        <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4848,13 +6328,13 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4865,7 +6345,7 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -4882,7 +6362,7 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>83</v>
+        <v>372</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -4899,7 +6379,7 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>95</v>
+        <v>450</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -4916,7 +6396,7 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>508</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -4933,10 +6413,10 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E92" t="s">
         <v>18</v>
@@ -4950,13 +6430,13 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E93" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4967,13 +6447,13 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E94" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4984,10 +6464,10 @@
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -5001,13 +6481,13 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>260</v>
+        <v>346</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E96" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -5018,13 +6498,13 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E97" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -5035,13 +6515,13 @@
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>348</v>
+        <v>64</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -5052,13 +6532,13 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>356</v>
+        <v>125</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -5069,13 +6549,13 @@
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>372</v>
+        <v>187</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -5086,13 +6566,13 @@
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>390</v>
+        <v>222</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E101" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -5103,13 +6583,13 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>394</v>
+        <v>250</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E102" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -5120,13 +6600,13 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>402</v>
+        <v>288</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E103" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -5137,10 +6617,10 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>412</v>
+        <v>322</v>
       </c>
       <c r="D104" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E104" t="s">
         <v>12</v>
@@ -5154,10 +6634,10 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E105" t="s">
         <v>12</v>
@@ -5171,13 +6651,13 @@
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -5188,10 +6668,10 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E107" t="s">
         <v>12</v>
@@ -5205,7 +6685,7 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>490</v>
+        <v>198</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -5222,13 +6702,13 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>496</v>
+        <v>412</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
       </c>
       <c r="E109" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -5239,13 +6719,13 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>508</v>
+        <v>424</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
       </c>
       <c r="E110" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -5256,10 +6736,10 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>468</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E111" t="s">
         <v>12</v>
@@ -5273,10 +6753,10 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>490</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E112" t="s">
         <v>12</v>
@@ -5290,7 +6770,7 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
@@ -5307,7 +6787,7 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
@@ -5324,7 +6804,7 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
@@ -5341,7 +6821,7 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
@@ -5358,7 +6838,7 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
@@ -5375,7 +6855,7 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D118" t="s">
         <v>12</v>
@@ -5392,7 +6872,7 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
@@ -5409,7 +6889,7 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
@@ -5426,7 +6906,7 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
@@ -5443,7 +6923,7 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
@@ -5460,7 +6940,7 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
@@ -5477,7 +6957,7 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
@@ -5494,7 +6974,7 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D125" t="s">
         <v>12</v>
@@ -5511,7 +6991,7 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
@@ -5528,7 +7008,7 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
@@ -5545,7 +7025,7 @@
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
@@ -5562,7 +7042,7 @@
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -5579,7 +7059,7 @@
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
@@ -5596,7 +7076,7 @@
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
@@ -5613,7 +7093,7 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
@@ -5630,7 +7110,7 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
@@ -5647,7 +7127,7 @@
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
@@ -5664,7 +7144,7 @@
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D135" t="s">
         <v>12</v>
@@ -5681,7 +7161,7 @@
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
@@ -5698,13 +7178,13 @@
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D137" t="s">
         <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -5715,7 +7195,7 @@
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
@@ -5732,7 +7212,7 @@
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
@@ -5749,7 +7229,7 @@
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
@@ -5766,7 +7246,7 @@
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
@@ -5783,7 +7263,7 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
@@ -5800,7 +7280,7 @@
         <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
@@ -5817,7 +7297,7 @@
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
@@ -5834,7 +7314,7 @@
         <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D145" t="s">
         <v>12</v>
@@ -5851,7 +7331,7 @@
         <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
@@ -5868,7 +7348,7 @@
         <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
@@ -5885,7 +7365,7 @@
         <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
@@ -5902,7 +7382,7 @@
         <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
@@ -5919,7 +7399,7 @@
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
@@ -5936,13 +7416,13 @@
         <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D151" t="s">
         <v>12</v>
       </c>
       <c r="E151" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -7466,13 +8946,13 @@
         <v>6</v>
       </c>
       <c r="C241" t="s">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="D241" t="s">
         <v>25</v>
       </c>
       <c r="E241" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -7483,13 +8963,13 @@
         <v>6</v>
       </c>
       <c r="C242" t="s">
-        <v>169</v>
+        <v>506</v>
       </c>
       <c r="D242" t="s">
         <v>25</v>
       </c>
       <c r="E242" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -7500,13 +8980,13 @@
         <v>6</v>
       </c>
       <c r="C243" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="D243" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E243" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -7517,13 +8997,13 @@
         <v>6</v>
       </c>
       <c r="C244" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="D244" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E244" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -7534,13 +9014,13 @@
         <v>6</v>
       </c>
       <c r="C245" t="s">
-        <v>430</v>
+        <v>171</v>
       </c>
       <c r="D245" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E245" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -7551,13 +9031,13 @@
         <v>6</v>
       </c>
       <c r="C246" t="s">
-        <v>452</v>
+        <v>278</v>
       </c>
       <c r="D246" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E246" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -7568,13 +9048,13 @@
         <v>6</v>
       </c>
       <c r="C247" t="s">
-        <v>506</v>
+        <v>394</v>
       </c>
       <c r="D247" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E247" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
